--- a/Excel-XLSX/UN-ZAM.xlsx
+++ b/Excel-XLSX/UN-ZAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="1109">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>q75qgE</t>
+    <t>j52wEj</t>
   </si>
   <si>
     <t>1965</t>
@@ -3255,16 +3255,16 @@
     <t>572</t>
   </si>
   <si>
-    <t>13577</t>
+    <t>13763</t>
   </si>
   <si>
     <t>573</t>
   </si>
   <si>
-    <t>10308</t>
-  </si>
-  <si>
-    <t>2749</t>
+    <t>10912</t>
+  </si>
+  <si>
+    <t>3159</t>
   </si>
   <si>
     <t>574</t>
@@ -3276,15 +3276,24 @@
     <t>576</t>
   </si>
   <si>
-    <t>59641</t>
-  </si>
-  <si>
-    <t>5517</t>
+    <t>61843</t>
+  </si>
+  <si>
+    <t>5681</t>
   </si>
   <si>
     <t>577</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
     <t>578</t>
   </si>
   <si>
@@ -3303,24 +3312,24 @@
     <t>584</t>
   </si>
   <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>4074</t>
+  </si>
+  <si>
     <t>586</t>
   </si>
   <si>
-    <t>934</t>
-  </si>
-  <si>
-    <t>4089</t>
-  </si>
-  <si>
     <t>587</t>
   </si>
   <si>
+    <t>4545</t>
+  </si>
+  <si>
     <t>588</t>
   </si>
   <si>
-    <t>4171</t>
-  </si>
-  <si>
     <t>589</t>
   </si>
   <si>
@@ -3334,9 +3343,6 @@
   </si>
   <si>
     <t>593</t>
-  </si>
-  <si>
-    <t>594</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3727,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V595"/>
+  <dimension ref="A1:V594"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -42870,7 +42876,7 @@
         <v>31</v>
       </c>
       <c r="N576" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O576" s="2" t="s">
         <v>110</v>
@@ -42944,7 +42950,7 @@
         <v>1087</v>
       </c>
       <c r="P577" s="2" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="Q577" s="2" t="s">
         <v>33</v>
@@ -42982,16 +42988,16 @@
         <v>1077</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>768</v>
+        <v>1089</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>769</v>
+        <v>1090</v>
       </c>
       <c r="I578" s="1" t="s">
-        <v>770</v>
+        <v>1091</v>
       </c>
       <c r="J578" s="2" t="s">
         <v>28</v>
@@ -43044,7 +43050,7 @@
         <v>22</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>1077</v>
@@ -43074,10 +43080,10 @@
         <v>31</v>
       </c>
       <c r="N579" s="2" t="s">
-        <v>571</v>
+        <v>631</v>
       </c>
       <c r="O579" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="P579" s="2" t="s">
         <v>33</v>
@@ -43112,7 +43118,7 @@
         <v>22</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>1077</v>
@@ -43142,10 +43148,10 @@
         <v>31</v>
       </c>
       <c r="N580" s="2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="P580" s="2" t="s">
         <v>33</v>
@@ -43180,7 +43186,7 @@
         <v>22</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>1077</v>
@@ -43248,7 +43254,7 @@
         <v>22</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>1077</v>
@@ -43316,7 +43322,7 @@
         <v>22</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>1077</v>
@@ -43452,7 +43458,7 @@
         <v>22</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>1077</v>
@@ -43526,16 +43532,16 @@
         <v>1077</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>1035</v>
+        <v>458</v>
       </c>
       <c r="H586" s="1" t="s">
-        <v>1036</v>
+        <v>459</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>1036</v>
+        <v>459</v>
       </c>
       <c r="J586" s="2" t="s">
         <v>28</v>
@@ -43550,10 +43556,10 @@
         <v>31</v>
       </c>
       <c r="N586" s="2" t="s">
-        <v>51</v>
+        <v>1098</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="P586" s="2" t="s">
         <v>33</v>
@@ -43568,7 +43574,7 @@
         <v>33</v>
       </c>
       <c r="T586" s="2" t="s">
-        <v>33</v>
+        <v>1099</v>
       </c>
       <c r="U586" s="1" t="s">
         <v>34</v>
@@ -43588,22 +43594,22 @@
         <v>22</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>458</v>
+        <v>879</v>
       </c>
       <c r="H587" s="1" t="s">
-        <v>459</v>
+        <v>880</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>459</v>
+        <v>880</v>
       </c>
       <c r="J587" s="2" t="s">
         <v>28</v>
@@ -43618,10 +43624,10 @@
         <v>31</v>
       </c>
       <c r="N587" s="2" t="s">
-        <v>1096</v>
+        <v>51</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="P587" s="2" t="s">
         <v>33</v>
@@ -43636,7 +43642,7 @@
         <v>33</v>
       </c>
       <c r="T587" s="2" t="s">
-        <v>1097</v>
+        <v>33</v>
       </c>
       <c r="U587" s="1" t="s">
         <v>34</v>
@@ -43656,22 +43662,22 @@
         <v>22</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>393</v>
+        <v>196</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>879</v>
+        <v>197</v>
       </c>
       <c r="H588" s="1" t="s">
-        <v>880</v>
+        <v>198</v>
       </c>
       <c r="I588" s="1" t="s">
-        <v>880</v>
+        <v>198</v>
       </c>
       <c r="J588" s="2" t="s">
         <v>28</v>
@@ -43686,10 +43692,10 @@
         <v>31</v>
       </c>
       <c r="N588" s="2" t="s">
-        <v>51</v>
+        <v>1102</v>
       </c>
       <c r="O588" s="2" t="s">
-        <v>33</v>
+        <v>954</v>
       </c>
       <c r="P588" s="2" t="s">
         <v>33</v>
@@ -43724,22 +43730,22 @@
         <v>22</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>196</v>
+        <v>414</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>197</v>
+        <v>971</v>
       </c>
       <c r="H589" s="1" t="s">
-        <v>198</v>
+        <v>972</v>
       </c>
       <c r="I589" s="1" t="s">
-        <v>198</v>
+        <v>972</v>
       </c>
       <c r="J589" s="2" t="s">
         <v>28</v>
@@ -43754,10 +43760,10 @@
         <v>31</v>
       </c>
       <c r="N589" s="2" t="s">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="O589" s="2" t="s">
-        <v>887</v>
+        <v>33</v>
       </c>
       <c r="P589" s="2" t="s">
         <v>33</v>
@@ -43792,22 +43798,22 @@
         <v>22</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>971</v>
+        <v>656</v>
       </c>
       <c r="H590" s="1" t="s">
-        <v>972</v>
+        <v>657</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>972</v>
+        <v>658</v>
       </c>
       <c r="J590" s="2" t="s">
         <v>28</v>
@@ -43822,10 +43828,10 @@
         <v>31</v>
       </c>
       <c r="N590" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O590" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="O590" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P590" s="2" t="s">
         <v>33</v>
@@ -43860,22 +43866,22 @@
         <v>22</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="H591" s="1" t="s">
-        <v>657</v>
+        <v>783</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>658</v>
+        <v>783</v>
       </c>
       <c r="J591" s="2" t="s">
         <v>28</v>
@@ -43890,10 +43896,10 @@
         <v>31</v>
       </c>
       <c r="N591" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="O591" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P591" s="2" t="s">
         <v>33</v>
@@ -43928,22 +43934,22 @@
         <v>22</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="H592" s="1" t="s">
-        <v>783</v>
+        <v>886</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>783</v>
+        <v>886</v>
       </c>
       <c r="J592" s="2" t="s">
         <v>28</v>
@@ -43958,10 +43964,10 @@
         <v>31</v>
       </c>
       <c r="N592" s="2" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="P592" s="2" t="s">
         <v>33</v>
@@ -43996,22 +44002,22 @@
         <v>22</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>885</v>
+        <v>201</v>
       </c>
       <c r="H593" s="1" t="s">
-        <v>886</v>
+        <v>202</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>886</v>
+        <v>202</v>
       </c>
       <c r="J593" s="2" t="s">
         <v>28</v>
@@ -44026,10 +44032,10 @@
         <v>31</v>
       </c>
       <c r="N593" s="2" t="s">
-        <v>106</v>
+        <v>790</v>
       </c>
       <c r="O593" s="2" t="s">
-        <v>51</v>
+        <v>409</v>
       </c>
       <c r="P593" s="2" t="s">
         <v>33</v>
@@ -44064,22 +44070,22 @@
         <v>22</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H594" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="J594" s="2" t="s">
         <v>28</v>
@@ -44094,10 +44100,10 @@
         <v>31</v>
       </c>
       <c r="N594" s="2" t="s">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="O594" s="2" t="s">
-        <v>417</v>
+        <v>91</v>
       </c>
       <c r="P594" s="2" t="s">
         <v>33</v>
@@ -44118,74 +44124,6 @@
         <v>34</v>
       </c>
       <c r="V594" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E595" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F595" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G595" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H595" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I595" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J595" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K595" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L595" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M595" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N595" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O595" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P595" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q595" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R595" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S595" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T595" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U595" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V595" s="2" t="s">
         <v>33</v>
       </c>
     </row>
